--- a/Code/Results/Cases/Case_3_222/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_222/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.02006522553464</v>
+        <v>11.05707143610673</v>
       </c>
       <c r="C2">
-        <v>6.961538054510489</v>
+        <v>10.11266727046377</v>
       </c>
       <c r="D2">
-        <v>5.141769315729853</v>
+        <v>4.866972458720801</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>16.25266758424565</v>
+        <v>22.91487345060163</v>
       </c>
       <c r="G2">
-        <v>19.45225793161547</v>
+        <v>26.36220539376198</v>
       </c>
       <c r="H2">
-        <v>8.235776239100137</v>
+        <v>13.76516096934731</v>
       </c>
       <c r="I2">
-        <v>13.44056811919168</v>
+        <v>21.74193069949498</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.27536887377158</v>
+        <v>7.925055994073841</v>
       </c>
       <c r="L2">
-        <v>8.0985905276347</v>
+        <v>10.67841275826011</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.86833226249805</v>
+        <v>18.19434022731312</v>
       </c>
       <c r="O2">
-        <v>13.08578765095992</v>
+        <v>20.61882427973013</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.0961128363895</v>
+        <v>10.76010400995305</v>
       </c>
       <c r="C3">
-        <v>7.006717645781952</v>
+        <v>10.13158757623668</v>
       </c>
       <c r="D3">
-        <v>4.926451991182248</v>
+        <v>4.784708140403266</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.9838688722535</v>
+        <v>22.94466011048424</v>
       </c>
       <c r="G3">
-        <v>19.15849344031648</v>
+        <v>26.41347593726986</v>
       </c>
       <c r="H3">
-        <v>8.286521111809918</v>
+        <v>13.80505345436734</v>
       </c>
       <c r="I3">
-        <v>13.54064720945861</v>
+        <v>21.82022024763959</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.68962170605242</v>
+        <v>7.645495042701882</v>
       </c>
       <c r="L3">
-        <v>7.809416908174708</v>
+        <v>10.64966426284792</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.02970184606943</v>
+        <v>18.24537806026862</v>
       </c>
       <c r="O3">
-        <v>13.09169721407417</v>
+        <v>20.68154893016588</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.4947522820303</v>
+        <v>10.57514588943297</v>
       </c>
       <c r="C4">
-        <v>7.035849087175272</v>
+        <v>10.14393968284393</v>
       </c>
       <c r="D4">
-        <v>4.788642433028681</v>
+        <v>4.732723468180642</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15.83018747036416</v>
+        <v>22.96853066809147</v>
       </c>
       <c r="G4">
-        <v>18.99674626488638</v>
+        <v>26.4527335548402</v>
       </c>
       <c r="H4">
-        <v>8.322093170101544</v>
+        <v>13.83146104954275</v>
       </c>
       <c r="I4">
-        <v>13.61149323410206</v>
+        <v>21.87209013475012</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.31224060535404</v>
+        <v>7.513804815899531</v>
       </c>
       <c r="L4">
-        <v>7.630774427525047</v>
+        <v>10.63410903432772</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.13142569818743</v>
+        <v>18.27825821940866</v>
       </c>
       <c r="O4">
-        <v>13.10531309939378</v>
+        <v>20.72398550102336</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.24109857273556</v>
+        <v>10.4992296267838</v>
       </c>
       <c r="C5">
-        <v>7.048070589017944</v>
+        <v>10.14915859808014</v>
       </c>
       <c r="D5">
-        <v>4.731117985982906</v>
+        <v>4.711181993063521</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.77043616170572</v>
+        <v>22.97966025799769</v>
       </c>
       <c r="G5">
-        <v>18.93547117952507</v>
+        <v>26.47068156952797</v>
       </c>
       <c r="H5">
-        <v>8.337667076545477</v>
+        <v>13.84270376786594</v>
       </c>
       <c r="I5">
-        <v>13.64264186295618</v>
+        <v>21.89418268095699</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.15407915791364</v>
+        <v>7.459813876360849</v>
       </c>
       <c r="L5">
-        <v>7.557815329230006</v>
+        <v>10.62830229098408</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.17355372540684</v>
+        <v>18.29204610984758</v>
       </c>
       <c r="O5">
-        <v>13.11328995428207</v>
+        <v>20.74226425100983</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.19845959365504</v>
+        <v>10.48659437552132</v>
       </c>
       <c r="C6">
-        <v>7.050121125325465</v>
+        <v>10.15003640384787</v>
       </c>
       <c r="D6">
-        <v>4.721484988156091</v>
+        <v>4.707583869091176</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15.76068846882631</v>
+        <v>22.98159295365835</v>
       </c>
       <c r="G6">
-        <v>18.92557492314578</v>
+        <v>26.47377943673955</v>
       </c>
       <c r="H6">
-        <v>8.340317305508824</v>
+        <v>13.84459969616033</v>
       </c>
       <c r="I6">
-        <v>13.64794925573216</v>
+        <v>21.89790881001531</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.12755508039512</v>
+        <v>7.450823000294863</v>
       </c>
       <c r="L6">
-        <v>7.545694279237057</v>
+        <v>10.62737036057343</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.18059010225985</v>
+        <v>18.29435910101871</v>
       </c>
       <c r="O6">
-        <v>13.1147587162868</v>
+        <v>20.74535891326379</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.49136625889794</v>
+        <v>10.57412410452124</v>
       </c>
       <c r="C7">
-        <v>7.036012492035179</v>
+        <v>10.14400931586668</v>
       </c>
       <c r="D7">
-        <v>4.787872106956836</v>
+        <v>4.732434380945092</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15.829369986098</v>
+        <v>22.96867509059825</v>
       </c>
       <c r="G7">
-        <v>18.99590118209687</v>
+        <v>26.45296771949509</v>
       </c>
       <c r="H7">
-        <v>8.322298881946917</v>
+        <v>13.83161072322594</v>
       </c>
       <c r="I7">
-        <v>13.61190420027275</v>
+        <v>21.87238421565015</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.31012517849041</v>
+        <v>7.513078451569136</v>
       </c>
       <c r="L7">
-        <v>7.629790971292821</v>
+        <v>10.63402856176444</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.13199110600993</v>
+        <v>18.2784425914739</v>
       </c>
       <c r="O7">
-        <v>13.10541095664325</v>
+        <v>20.72422802582208</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.70853331557319</v>
+        <v>10.95528714028517</v>
       </c>
       <c r="C8">
-        <v>6.976827518202581</v>
+        <v>10.11903876241484</v>
       </c>
       <c r="D8">
-        <v>5.068714907574481</v>
+        <v>4.838921495522266</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>16.15764154008106</v>
+        <v>22.92398481336423</v>
       </c>
       <c r="G8">
-        <v>19.34708100057079</v>
+        <v>26.37826626739361</v>
       </c>
       <c r="H8">
-        <v>8.252337198143273</v>
+        <v>13.77851891763362</v>
       </c>
       <c r="I8">
-        <v>13.47307316499741</v>
+        <v>21.76813608689932</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.07712721765347</v>
+        <v>7.830126195663444</v>
       </c>
       <c r="L8">
-        <v>7.999174427342185</v>
+        <v>10.6680682865807</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.92343037962072</v>
+        <v>18.21161850073349</v>
       </c>
       <c r="O8">
-        <v>13.08570273500676</v>
+        <v>20.63963681977354</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.82680336395765</v>
+        <v>11.67728781114774</v>
       </c>
       <c r="C9">
-        <v>6.87178571759923</v>
+        <v>10.07587986045792</v>
       </c>
       <c r="D9">
-        <v>5.573403097869212</v>
+        <v>5.035490723479407</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>16.89027258791699</v>
+        <v>22.88067188162898</v>
       </c>
       <c r="G9">
-        <v>20.18459228144513</v>
+        <v>26.29369399434883</v>
       </c>
       <c r="H9">
-        <v>8.151665216424888</v>
+        <v>13.68957684460572</v>
       </c>
       <c r="I9">
-        <v>13.27933003435705</v>
+        <v>21.59387042309674</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.43776960774813</v>
+        <v>8.48718788966351</v>
       </c>
       <c r="L9">
-        <v>8.710410248931028</v>
+        <v>10.75121423692075</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.53492617043511</v>
+        <v>18.09276994990978</v>
       </c>
       <c r="O9">
-        <v>13.129945897857</v>
+        <v>20.50492970805129</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.22169109423263</v>
+        <v>12.18646045883521</v>
       </c>
       <c r="C10">
-        <v>6.80130938780217</v>
+        <v>10.04767979342024</v>
       </c>
       <c r="D10">
-        <v>5.914409661392843</v>
+        <v>5.1717423532733</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>17.48051075142396</v>
+        <v>22.87589111704933</v>
       </c>
       <c r="G10">
-        <v>20.89090716984598</v>
+        <v>26.26953493989521</v>
       </c>
       <c r="H10">
-        <v>8.102108927999197</v>
+        <v>13.6334636666386</v>
       </c>
       <c r="I10">
-        <v>13.19046701639735</v>
+        <v>21.48424664653889</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.3473039338957</v>
+        <v>8.932246915858038</v>
       </c>
       <c r="L10">
-        <v>9.219665497526426</v>
+        <v>10.8219424694787</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.26128572054516</v>
+        <v>18.01281788722626</v>
       </c>
       <c r="O10">
-        <v>13.21783225921758</v>
+        <v>20.42502577452772</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.82174887962177</v>
+        <v>12.4124056667384</v>
       </c>
       <c r="C11">
-        <v>6.770699819206238</v>
+        <v>10.03560597419769</v>
       </c>
       <c r="D11">
-        <v>6.062808858214617</v>
+        <v>5.231817967303675</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17.75972383794457</v>
+        <v>22.87957968243465</v>
       </c>
       <c r="G11">
-        <v>21.23173903530358</v>
+        <v>26.26682026089282</v>
       </c>
       <c r="H11">
-        <v>8.085352267462925</v>
+        <v>13.60993774579822</v>
       </c>
       <c r="I11">
-        <v>13.16292243020851</v>
+        <v>21.43837776090368</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.74117561674961</v>
+        <v>9.12603981598266</v>
       </c>
       <c r="L11">
-        <v>9.447542453631605</v>
+        <v>10.85612680827613</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.13920613659813</v>
+        <v>17.97803077130699</v>
       </c>
       <c r="O11">
-        <v>13.27082743976779</v>
+        <v>20.39282675340315</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.04406084913196</v>
+        <v>12.49706941786832</v>
       </c>
       <c r="C12">
-        <v>6.759317390024937</v>
+        <v>10.03114191346351</v>
       </c>
       <c r="D12">
-        <v>6.118019599649896</v>
+        <v>5.254282464402438</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>17.86694061505174</v>
+        <v>22.88181775905892</v>
       </c>
       <c r="G12">
-        <v>21.36357350979528</v>
+        <v>26.26698302334145</v>
       </c>
       <c r="H12">
-        <v>8.079881173152497</v>
+        <v>13.60131649103186</v>
       </c>
       <c r="I12">
-        <v>13.1544523379253</v>
+        <v>21.42158397782757</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.88744995756318</v>
+        <v>9.19814376957326</v>
       </c>
       <c r="L12">
-        <v>9.533226723492874</v>
+        <v>10.86935261122946</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.09331046726826</v>
+        <v>17.96508445091074</v>
       </c>
       <c r="O12">
-        <v>13.29284364903836</v>
+        <v>20.38123138164483</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.99639998820629</v>
+        <v>12.47887664602084</v>
       </c>
       <c r="C13">
-        <v>6.761759511598039</v>
+        <v>10.03209853144598</v>
       </c>
       <c r="D13">
-        <v>6.106173020873036</v>
+        <v>5.249457165427892</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>17.84378441251307</v>
+        <v>22.88129836876907</v>
       </c>
       <c r="G13">
-        <v>21.33505814719064</v>
+        <v>26.26689500950489</v>
       </c>
       <c r="H13">
-        <v>8.081019900697935</v>
+        <v>13.6031604479333</v>
       </c>
       <c r="I13">
-        <v>13.15618758128427</v>
+        <v>21.42517520184504</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.85607528440614</v>
+        <v>9.182672381253001</v>
       </c>
       <c r="L13">
-        <v>9.514801019638544</v>
+        <v>10.8664918359533</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.10318029469378</v>
+        <v>17.96786259956741</v>
       </c>
       <c r="O13">
-        <v>13.28801424039102</v>
+        <v>20.38370205492889</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.84013691655288</v>
+        <v>12.4193894100055</v>
       </c>
       <c r="C14">
-        <v>6.769759194837819</v>
+        <v>10.03523655076691</v>
       </c>
       <c r="D14">
-        <v>6.067370904372976</v>
+        <v>5.233671902800212</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>17.76851518764686</v>
+        <v>22.87974696243554</v>
       </c>
       <c r="G14">
-        <v>21.2425298937451</v>
+        <v>26.2668097863579</v>
       </c>
       <c r="H14">
-        <v>8.084884388695803</v>
+        <v>13.60922270879353</v>
       </c>
       <c r="I14">
-        <v>13.16218567101651</v>
+        <v>21.43698458333801</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.75326741380631</v>
+        <v>9.131997712273582</v>
       </c>
       <c r="L14">
-        <v>9.454604259304055</v>
+        <v>10.85720932030831</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.13542366371823</v>
+        <v>17.97696112931179</v>
       </c>
       <c r="O14">
-        <v>13.27259925771072</v>
+        <v>20.39186081111162</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.74378221338241</v>
+        <v>12.38283272096142</v>
       </c>
       <c r="C15">
-        <v>6.774686424361535</v>
+        <v>10.03717273341908</v>
       </c>
       <c r="D15">
-        <v>6.043474774865859</v>
+        <v>5.223965571693159</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>17.7226023290563</v>
+        <v>22.87890617683812</v>
       </c>
       <c r="G15">
-        <v>21.18621297128171</v>
+        <v>26.26691266061255</v>
       </c>
       <c r="H15">
-        <v>8.087366632742404</v>
+        <v>13.61297345578301</v>
       </c>
       <c r="I15">
-        <v>13.16611823998706</v>
+        <v>21.44429317154751</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.68991965352957</v>
+        <v>9.100790207166501</v>
       </c>
       <c r="L15">
-        <v>9.41765113973719</v>
+        <v>10.85155985129954</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.15521669261774</v>
+        <v>17.98256375184651</v>
       </c>
       <c r="O15">
-        <v>13.26341304757332</v>
+        <v>20.39693615048177</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.18178555051229</v>
+        <v>12.17157310432233</v>
       </c>
       <c r="C16">
-        <v>6.803338994582534</v>
+        <v>10.04848398889051</v>
       </c>
       <c r="D16">
-        <v>5.904574488973653</v>
+        <v>5.167776983175957</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>17.46247433796624</v>
+        <v>22.87576790363551</v>
       </c>
       <c r="G16">
-        <v>20.8690227623802</v>
+        <v>26.26987896145549</v>
       </c>
       <c r="H16">
-        <v>8.103324031418706</v>
+        <v>13.63504137968125</v>
       </c>
       <c r="I16">
-        <v>13.19253549786027</v>
+        <v>21.48732482162982</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.32116177155651</v>
+        <v>8.919404599515071</v>
       </c>
       <c r="L16">
-        <v>9.204691378111752</v>
+        <v>10.81974820385329</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.26931119753233</v>
+        <v>18.0151230937539</v>
       </c>
       <c r="O16">
-        <v>13.21463741501047</v>
+        <v>20.42721364415893</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.8282160247812</v>
+        <v>12.04045811941072</v>
       </c>
       <c r="C17">
-        <v>6.821288006851158</v>
+        <v>10.05561599699423</v>
       </c>
       <c r="D17">
-        <v>5.817627217894414</v>
+        <v>5.132811080537921</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>17.3055985179018</v>
+        <v>22.87534331741737</v>
       </c>
       <c r="G17">
-        <v>20.67941271791537</v>
+        <v>26.27381908918064</v>
       </c>
       <c r="H17">
-        <v>8.114625056281197</v>
+        <v>13.64909155336974</v>
       </c>
       <c r="I17">
-        <v>13.21211671621714</v>
+        <v>21.51474817605835</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.08983393419459</v>
+        <v>8.805884231969015</v>
       </c>
       <c r="L17">
-        <v>9.073029578238279</v>
+        <v>10.80074192524293</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.33991091692633</v>
+        <v>18.03550212023594</v>
       </c>
       <c r="O17">
-        <v>13.18810413303845</v>
+        <v>20.44685146246549</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.62160383170334</v>
+        <v>11.96451393125782</v>
       </c>
       <c r="C18">
-        <v>6.831748311635728</v>
+        <v>10.05978918731997</v>
       </c>
       <c r="D18">
-        <v>5.766985132373949</v>
+        <v>5.112520823972004</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>17.2163792912677</v>
+        <v>22.87565114609717</v>
       </c>
       <c r="G18">
-        <v>20.57219482630054</v>
+        <v>26.27686428580586</v>
       </c>
       <c r="H18">
-        <v>8.121667172395835</v>
+        <v>13.65736112213342</v>
       </c>
       <c r="I18">
-        <v>13.22458495759774</v>
+        <v>21.5308977796887</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.95490958153804</v>
+        <v>8.739776332691978</v>
       </c>
       <c r="L18">
-        <v>8.996948006064331</v>
+        <v>10.78999968993762</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.38074471960659</v>
+        <v>18.04737269458215</v>
       </c>
       <c r="O18">
-        <v>13.17406357010253</v>
+        <v>20.45853715026889</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.5510893341873</v>
+        <v>11.93871201037655</v>
       </c>
       <c r="C19">
-        <v>6.835313432919659</v>
+        <v>10.06121437474892</v>
       </c>
       <c r="D19">
-        <v>5.749730586110173</v>
+        <v>5.105620522440601</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>17.18634660564732</v>
+        <v>22.87585023035156</v>
       </c>
       <c r="G19">
-        <v>20.53620990364664</v>
+        <v>26.2780290804598</v>
       </c>
       <c r="H19">
-        <v>8.124143350453769</v>
+        <v>13.66019339739092</v>
       </c>
       <c r="I19">
-        <v>13.22901029944592</v>
+        <v>21.5364303881038</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.90890588617731</v>
+        <v>8.717254675926224</v>
       </c>
       <c r="L19">
-        <v>8.97112952624266</v>
+        <v>10.78639536883064</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.39460964367485</v>
+        <v>18.05141750223099</v>
       </c>
       <c r="O19">
-        <v>13.16951694442166</v>
+        <v>20.46256076673283</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.86618999804293</v>
+        <v>12.0544710220784</v>
       </c>
       <c r="C20">
-        <v>6.819363174924649</v>
+        <v>10.05484943277375</v>
       </c>
       <c r="D20">
-        <v>5.826948484077815</v>
+        <v>5.136551845143518</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>17.32219391864689</v>
+        <v>22.87533139261326</v>
       </c>
       <c r="G20">
-        <v>20.69940677371375</v>
+        <v>26.27331902973994</v>
       </c>
       <c r="H20">
-        <v>8.113365640226817</v>
+        <v>13.64757640302448</v>
       </c>
       <c r="I20">
-        <v>13.20990670562352</v>
+        <v>21.5117899509109</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.11465293991042</v>
+        <v>8.818053181910503</v>
       </c>
       <c r="L20">
-        <v>9.087082245625663</v>
+        <v>10.80274560259769</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.33237207879826</v>
+        <v>18.03331731359646</v>
       </c>
       <c r="O20">
-        <v>13.19080174581789</v>
+        <v>20.44472055699445</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.88616827144919</v>
+        <v>12.43688719350198</v>
       </c>
       <c r="C21">
-        <v>6.767403826581109</v>
+        <v>10.03431191016258</v>
       </c>
       <c r="D21">
-        <v>6.078794876654823</v>
+        <v>5.238316229887296</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>17.7905837297275</v>
+        <v>22.88017983352914</v>
       </c>
       <c r="G21">
-        <v>21.26963288511774</v>
+        <v>26.26680250089507</v>
       </c>
       <c r="H21">
-        <v>8.083725223974159</v>
+        <v>13.60743427419248</v>
       </c>
       <c r="I21">
-        <v>13.1603698050665</v>
+        <v>21.43350025043672</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.78354274182749</v>
+        <v>9.146917117534059</v>
       </c>
       <c r="L21">
-        <v>9.472302458784567</v>
+        <v>10.85992826193078</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.12594405810939</v>
+        <v>17.97428252222718</v>
       </c>
       <c r="O21">
-        <v>13.27707354821112</v>
+        <v>20.38944815789659</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.52414401248708</v>
+        <v>12.68155903744822</v>
       </c>
       <c r="C22">
-        <v>6.734662307662914</v>
+        <v>10.02151893432681</v>
       </c>
       <c r="D22">
-        <v>6.237645058338096</v>
+        <v>5.303160379544719</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>18.10533260228721</v>
+        <v>22.88825096689378</v>
       </c>
       <c r="G22">
-        <v>21.65842505816128</v>
+        <v>26.26948380154713</v>
       </c>
       <c r="H22">
-        <v>8.069470075548399</v>
+        <v>13.58287478561365</v>
       </c>
       <c r="I22">
-        <v>13.13947346856554</v>
+        <v>21.38568971997874</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.20393258924253</v>
+        <v>9.354367884182386</v>
       </c>
       <c r="L22">
-        <v>9.720500921864437</v>
+        <v>10.89893391894922</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.99296793036026</v>
+        <v>17.9370214614255</v>
       </c>
       <c r="O22">
-        <v>13.34484516163881</v>
+        <v>20.35680868827064</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.1862506525467</v>
+        <v>12.55147885110255</v>
       </c>
       <c r="C23">
-        <v>6.75202563676724</v>
+        <v>10.02828934214834</v>
       </c>
       <c r="D23">
-        <v>6.153394396944869</v>
+        <v>5.26870754721405</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>17.93657401324203</v>
+        <v>22.88349546308703</v>
       </c>
       <c r="G23">
-        <v>21.44945928382578</v>
+        <v>26.26741772875116</v>
       </c>
       <c r="H23">
-        <v>8.076595857834636</v>
+        <v>13.59582936287186</v>
       </c>
       <c r="I23">
-        <v>13.14953950280343</v>
+        <v>21.41089978552199</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.9811007795807</v>
+        <v>9.244342337114391</v>
       </c>
       <c r="L23">
-        <v>9.588377374593346</v>
+        <v>10.87796917000366</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.06376663221634</v>
+        <v>17.95678775859814</v>
       </c>
       <c r="O23">
-        <v>13.30760777324496</v>
+        <v>20.37390987821426</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.84903237236574</v>
+        <v>12.04813754071553</v>
       </c>
       <c r="C24">
-        <v>6.820232951710651</v>
+        <v>10.05519576933455</v>
       </c>
       <c r="D24">
-        <v>5.82273637826149</v>
+        <v>5.134861229890784</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>17.31468811002724</v>
+        <v>22.87533506448239</v>
       </c>
       <c r="G24">
-        <v>20.69036187823414</v>
+        <v>26.27354267716675</v>
       </c>
       <c r="H24">
-        <v>8.11393332782766</v>
+        <v>13.64826080461569</v>
       </c>
       <c r="I24">
-        <v>13.21090208841385</v>
+        <v>21.51312616981474</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.10343828032325</v>
+        <v>8.812554224363442</v>
       </c>
       <c r="L24">
-        <v>9.08073023659837</v>
+        <v>10.80183916405954</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.33577962322871</v>
+        <v>18.03430458365987</v>
       </c>
       <c r="O24">
-        <v>13.1895783802819</v>
+        <v>20.44568270703185</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.2822750816512</v>
+        <v>11.48531664941857</v>
       </c>
       <c r="C25">
-        <v>6.899024980070189</v>
+        <v>10.0869370068084</v>
       </c>
       <c r="D25">
-        <v>5.441997926357816</v>
+        <v>4.983699769639493</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>16.68276263684757</v>
+        <v>22.88763945284946</v>
       </c>
       <c r="G25">
-        <v>19.94199950902347</v>
+        <v>26.30991695576829</v>
       </c>
       <c r="H25">
-        <v>8.174773628051382</v>
+        <v>13.71201554693133</v>
       </c>
       <c r="I25">
-        <v>13.3227698627874</v>
+        <v>21.6377825116794</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.08536186894021</v>
+        <v>8.315866667753971</v>
       </c>
       <c r="L25">
-        <v>8.519992474162597</v>
+        <v>10.72700048965314</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.63790475213448</v>
+        <v>18.12362326732458</v>
       </c>
       <c r="O25">
-        <v>13.10859397177032</v>
+        <v>20.53802750922556</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_222/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_222/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.05707143610673</v>
+        <v>14.02006522553469</v>
       </c>
       <c r="C2">
-        <v>10.11266727046377</v>
+        <v>6.961538054510219</v>
       </c>
       <c r="D2">
-        <v>4.866972458720801</v>
+        <v>5.141769315729918</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.91487345060163</v>
+        <v>16.2526675842456</v>
       </c>
       <c r="G2">
-        <v>26.36220539376198</v>
+        <v>19.45225793161542</v>
       </c>
       <c r="H2">
-        <v>13.76516096934731</v>
+        <v>8.235776239100145</v>
       </c>
       <c r="I2">
-        <v>21.74193069949498</v>
+        <v>13.4405681191916</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.925055994073841</v>
+        <v>11.27536887377157</v>
       </c>
       <c r="L2">
-        <v>10.67841275826011</v>
+        <v>8.098590527634737</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.19434022731312</v>
+        <v>11.86833226249805</v>
       </c>
       <c r="O2">
-        <v>20.61882427973013</v>
+        <v>13.08578765095992</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.76010400995305</v>
+        <v>13.09611283638953</v>
       </c>
       <c r="C3">
-        <v>10.13158757623668</v>
+        <v>7.006717645781686</v>
       </c>
       <c r="D3">
-        <v>4.784708140403266</v>
+        <v>4.926451991182261</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.94466011048424</v>
+        <v>15.9838688722536</v>
       </c>
       <c r="G3">
-        <v>26.41347593726986</v>
+        <v>19.15849344031649</v>
       </c>
       <c r="H3">
-        <v>13.80505345436734</v>
+        <v>8.286521111809982</v>
       </c>
       <c r="I3">
-        <v>21.82022024763959</v>
+        <v>13.54064720945868</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.645495042701882</v>
+        <v>10.68962170605239</v>
       </c>
       <c r="L3">
-        <v>10.64966426284792</v>
+        <v>7.809416908174745</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.24537806026862</v>
+        <v>12.02970184606946</v>
       </c>
       <c r="O3">
-        <v>20.68154893016588</v>
+        <v>13.09169721407426</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.57514588943297</v>
+        <v>12.49475228203032</v>
       </c>
       <c r="C4">
-        <v>10.14393968284393</v>
+        <v>7.03584908717527</v>
       </c>
       <c r="D4">
-        <v>4.732723468180642</v>
+        <v>4.788642433028837</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.96853066809147</v>
+        <v>15.83018747036398</v>
       </c>
       <c r="G4">
-        <v>26.4527335548402</v>
+        <v>18.9967462648863</v>
       </c>
       <c r="H4">
-        <v>13.83146104954275</v>
+        <v>8.322093170101544</v>
       </c>
       <c r="I4">
-        <v>21.87209013475012</v>
+        <v>13.61149323410204</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.513804815899531</v>
+        <v>10.31224060535403</v>
       </c>
       <c r="L4">
-        <v>10.63410903432772</v>
+        <v>7.630774427525091</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.27825821940866</v>
+        <v>12.13142569818739</v>
       </c>
       <c r="O4">
-        <v>20.72398550102336</v>
+        <v>13.10531309939376</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.4992296267838</v>
+        <v>12.24109857273553</v>
       </c>
       <c r="C5">
-        <v>10.14915859808014</v>
+        <v>7.048070589018065</v>
       </c>
       <c r="D5">
-        <v>4.711181993063521</v>
+        <v>4.731117985983064</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.97966025799769</v>
+        <v>15.7704361617057</v>
       </c>
       <c r="G5">
-        <v>26.47068156952797</v>
+        <v>18.93547117952511</v>
       </c>
       <c r="H5">
-        <v>13.84270376786594</v>
+        <v>8.337667076545477</v>
       </c>
       <c r="I5">
-        <v>21.89418268095699</v>
+        <v>13.6426418629562</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.459813876360849</v>
+        <v>10.15407915791357</v>
       </c>
       <c r="L5">
-        <v>10.62830229098408</v>
+        <v>7.557815329230044</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.29204610984758</v>
+        <v>12.1735537254068</v>
       </c>
       <c r="O5">
-        <v>20.74226425100983</v>
+        <v>13.11328995428211</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.48659437552132</v>
+        <v>12.19845959365498</v>
       </c>
       <c r="C6">
-        <v>10.15003640384787</v>
+        <v>7.050121125325594</v>
       </c>
       <c r="D6">
-        <v>4.707583869091176</v>
+        <v>4.721484988156301</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.98159295365835</v>
+        <v>15.7606884688262</v>
       </c>
       <c r="G6">
-        <v>26.47377943673955</v>
+        <v>18.92557492314577</v>
       </c>
       <c r="H6">
-        <v>13.84459969616033</v>
+        <v>8.340317305508817</v>
       </c>
       <c r="I6">
-        <v>21.89790881001531</v>
+        <v>13.64794925573216</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.450823000294863</v>
+        <v>10.12755508039511</v>
       </c>
       <c r="L6">
-        <v>10.62737036057343</v>
+        <v>7.545694279237028</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.29435910101871</v>
+        <v>12.18059010225985</v>
       </c>
       <c r="O6">
-        <v>20.74535891326379</v>
+        <v>13.11475871628679</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.57412410452124</v>
+        <v>12.49136625889794</v>
       </c>
       <c r="C7">
-        <v>10.14400931586668</v>
+        <v>7.036012492035179</v>
       </c>
       <c r="D7">
-        <v>4.732434380945092</v>
+        <v>4.787872106956847</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.96867509059825</v>
+        <v>15.82936998609799</v>
       </c>
       <c r="G7">
-        <v>26.45296771949509</v>
+        <v>18.99590118209684</v>
       </c>
       <c r="H7">
-        <v>13.83161072322594</v>
+        <v>8.322298881946919</v>
       </c>
       <c r="I7">
-        <v>21.87238421565015</v>
+        <v>13.61190420027274</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.513078451569136</v>
+        <v>10.3101251784904</v>
       </c>
       <c r="L7">
-        <v>10.63402856176444</v>
+        <v>7.629790971292858</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.2784425914739</v>
+        <v>12.13199110600993</v>
       </c>
       <c r="O7">
-        <v>20.72422802582208</v>
+        <v>13.10541095664324</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.95528714028517</v>
+        <v>13.70853331557318</v>
       </c>
       <c r="C8">
-        <v>10.11903876241484</v>
+        <v>6.976827518202707</v>
       </c>
       <c r="D8">
-        <v>4.838921495522266</v>
+        <v>5.068714907574471</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.92398481336423</v>
+        <v>16.15764154008109</v>
       </c>
       <c r="G8">
-        <v>26.37826626739361</v>
+        <v>19.34708100057082</v>
       </c>
       <c r="H8">
-        <v>13.77851891763362</v>
+        <v>8.252337198143284</v>
       </c>
       <c r="I8">
-        <v>21.76813608689932</v>
+        <v>13.47307316499749</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.830126195663444</v>
+        <v>11.07712721765347</v>
       </c>
       <c r="L8">
-        <v>10.6680682865807</v>
+        <v>7.999174427342154</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.21161850073349</v>
+        <v>11.92343037962072</v>
       </c>
       <c r="O8">
-        <v>20.63963681977354</v>
+        <v>13.08570273500678</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.67728781114774</v>
+        <v>15.82680336395766</v>
       </c>
       <c r="C9">
-        <v>10.07587986045792</v>
+        <v>6.871785717599089</v>
       </c>
       <c r="D9">
-        <v>5.035490723479407</v>
+        <v>5.573403097869311</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.88067188162898</v>
+        <v>16.890272587917</v>
       </c>
       <c r="G9">
-        <v>26.29369399434883</v>
+        <v>20.18459228144523</v>
       </c>
       <c r="H9">
-        <v>13.68957684460572</v>
+        <v>8.151665216424897</v>
       </c>
       <c r="I9">
-        <v>21.59387042309674</v>
+        <v>13.27933003435712</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.48718788966351</v>
+        <v>12.43776960774808</v>
       </c>
       <c r="L9">
-        <v>10.75121423692075</v>
+        <v>8.710410248930998</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.09276994990978</v>
+        <v>11.53492617043514</v>
       </c>
       <c r="O9">
-        <v>20.50492970805129</v>
+        <v>13.12994589785706</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.18646045883521</v>
+        <v>17.22169109423264</v>
       </c>
       <c r="C10">
-        <v>10.04767979342024</v>
+        <v>6.801309387802163</v>
       </c>
       <c r="D10">
-        <v>5.1717423532733</v>
+        <v>5.914409661393023</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.87589111704933</v>
+        <v>17.48051075142386</v>
       </c>
       <c r="G10">
-        <v>26.26953493989521</v>
+        <v>20.89090716984595</v>
       </c>
       <c r="H10">
-        <v>13.6334636666386</v>
+        <v>8.102108927999208</v>
       </c>
       <c r="I10">
-        <v>21.48424664653889</v>
+        <v>13.19046701639734</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.932246915858038</v>
+        <v>13.3473039338957</v>
       </c>
       <c r="L10">
-        <v>10.8219424694787</v>
+        <v>9.219665497526393</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.01281788722626</v>
+        <v>11.26128572054512</v>
       </c>
       <c r="O10">
-        <v>20.42502577452772</v>
+        <v>13.21783225921758</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.4124056667384</v>
+        <v>17.82174887962189</v>
       </c>
       <c r="C11">
-        <v>10.03560597419769</v>
+        <v>6.770699819206366</v>
       </c>
       <c r="D11">
-        <v>5.231817967303675</v>
+        <v>6.062808858214618</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.87957968243465</v>
+        <v>17.75972383794449</v>
       </c>
       <c r="G11">
-        <v>26.26682026089282</v>
+        <v>21.23173903530344</v>
       </c>
       <c r="H11">
-        <v>13.60993774579822</v>
+        <v>8.085352267462827</v>
       </c>
       <c r="I11">
-        <v>21.43837776090368</v>
+        <v>13.16292243020843</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.12603981598266</v>
+        <v>13.74117561674973</v>
       </c>
       <c r="L11">
-        <v>10.85612680827613</v>
+        <v>9.447542453631614</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.97803077130699</v>
+        <v>11.13920613659813</v>
       </c>
       <c r="O11">
-        <v>20.39282675340315</v>
+        <v>13.27082743976767</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.49706941786832</v>
+        <v>18.04406084913202</v>
       </c>
       <c r="C12">
-        <v>10.03114191346351</v>
+        <v>6.759317390024928</v>
       </c>
       <c r="D12">
-        <v>5.254282464402438</v>
+        <v>6.118019599649965</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.88181775905892</v>
+        <v>17.86694061505173</v>
       </c>
       <c r="G12">
-        <v>26.26698302334145</v>
+        <v>21.36357350979535</v>
       </c>
       <c r="H12">
-        <v>13.60131649103186</v>
+        <v>8.079881173152501</v>
       </c>
       <c r="I12">
-        <v>21.42158397782757</v>
+        <v>13.15445233792532</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.19814376957326</v>
+        <v>13.8874499575632</v>
       </c>
       <c r="L12">
-        <v>10.86935261122946</v>
+        <v>9.533226723492868</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.96508445091074</v>
+        <v>11.0933104672683</v>
       </c>
       <c r="O12">
-        <v>20.38123138164483</v>
+        <v>13.29284364903837</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.47887664602084</v>
+        <v>17.99639998820626</v>
       </c>
       <c r="C13">
-        <v>10.03209853144598</v>
+        <v>6.76175951159817</v>
       </c>
       <c r="D13">
-        <v>5.249457165427892</v>
+        <v>6.106173020873042</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.88129836876907</v>
+        <v>17.84378441251307</v>
       </c>
       <c r="G13">
-        <v>26.26689500950489</v>
+        <v>21.3350581471906</v>
       </c>
       <c r="H13">
-        <v>13.6031604479333</v>
+        <v>8.081019900697942</v>
       </c>
       <c r="I13">
-        <v>21.42517520184504</v>
+        <v>13.15618758128428</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.182672381253001</v>
+        <v>13.85607528440616</v>
       </c>
       <c r="L13">
-        <v>10.8664918359533</v>
+        <v>9.514801019638561</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.96786259956741</v>
+        <v>11.10318029469372</v>
       </c>
       <c r="O13">
-        <v>20.38370205492889</v>
+        <v>13.28801424039099</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.4193894100055</v>
+        <v>17.84013691655292</v>
       </c>
       <c r="C14">
-        <v>10.03523655076691</v>
+        <v>6.769759194837681</v>
       </c>
       <c r="D14">
-        <v>5.233671902800212</v>
+        <v>6.067370904372969</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.87974696243554</v>
+        <v>17.7685151876469</v>
       </c>
       <c r="G14">
-        <v>26.2668097863579</v>
+        <v>21.24252989374516</v>
       </c>
       <c r="H14">
-        <v>13.60922270879353</v>
+        <v>8.084884388695846</v>
       </c>
       <c r="I14">
-        <v>21.43698458333801</v>
+        <v>13.16218567101658</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.131997712273582</v>
+        <v>13.75326741380633</v>
       </c>
       <c r="L14">
-        <v>10.85720932030831</v>
+        <v>9.454604259304055</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.97696112931179</v>
+        <v>11.13542366371826</v>
       </c>
       <c r="O14">
-        <v>20.39186081111162</v>
+        <v>13.27259925771077</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.38283272096142</v>
+        <v>17.74378221338236</v>
       </c>
       <c r="C15">
-        <v>10.03717273341908</v>
+        <v>6.77468642436192</v>
       </c>
       <c r="D15">
-        <v>5.223965571693159</v>
+        <v>6.043474774865948</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.87890617683812</v>
+        <v>17.72260232905637</v>
       </c>
       <c r="G15">
-        <v>26.26691266061255</v>
+        <v>21.18621297128183</v>
       </c>
       <c r="H15">
-        <v>13.61297345578301</v>
+        <v>8.087366632742514</v>
       </c>
       <c r="I15">
-        <v>21.44429317154751</v>
+        <v>13.16611823998725</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.100790207166501</v>
+        <v>13.68991965352954</v>
       </c>
       <c r="L15">
-        <v>10.85155985129954</v>
+        <v>9.417651139737179</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.98256375184651</v>
+        <v>11.15521669261784</v>
       </c>
       <c r="O15">
-        <v>20.39693615048177</v>
+        <v>13.26341304757344</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.17157310432233</v>
+        <v>17.18178555051231</v>
       </c>
       <c r="C16">
-        <v>10.04848398889051</v>
+        <v>6.803338994582534</v>
       </c>
       <c r="D16">
-        <v>5.167776983175957</v>
+        <v>5.904574488973756</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.87576790363551</v>
+        <v>17.46247433796619</v>
       </c>
       <c r="G16">
-        <v>26.26987896145549</v>
+        <v>20.86902276238017</v>
       </c>
       <c r="H16">
-        <v>13.63504137968125</v>
+        <v>8.103324031418712</v>
       </c>
       <c r="I16">
-        <v>21.48732482162982</v>
+        <v>13.19253549786023</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.919404599515071</v>
+        <v>13.32116177155651</v>
       </c>
       <c r="L16">
-        <v>10.81974820385329</v>
+        <v>9.204691378111789</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.0151230937539</v>
+        <v>11.26931119753229</v>
       </c>
       <c r="O16">
-        <v>20.42721364415893</v>
+        <v>13.21463741501046</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.04045811941072</v>
+        <v>16.82821602478124</v>
       </c>
       <c r="C17">
-        <v>10.05561599699423</v>
+        <v>6.821288006851025</v>
       </c>
       <c r="D17">
-        <v>5.132811080537921</v>
+        <v>5.817627217894443</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.87534331741737</v>
+        <v>17.30559851790174</v>
       </c>
       <c r="G17">
-        <v>26.27381908918064</v>
+        <v>20.67941271791529</v>
       </c>
       <c r="H17">
-        <v>13.64909155336974</v>
+        <v>8.114625056281206</v>
       </c>
       <c r="I17">
-        <v>21.51474817605835</v>
+        <v>13.21211671621709</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.805884231969015</v>
+        <v>13.08983393419461</v>
       </c>
       <c r="L17">
-        <v>10.80074192524293</v>
+        <v>9.073029578238296</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.03550212023594</v>
+        <v>11.33991091692623</v>
       </c>
       <c r="O17">
-        <v>20.44685146246549</v>
+        <v>13.18810413303836</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.96451393125782</v>
+        <v>16.62160383170335</v>
       </c>
       <c r="C18">
-        <v>10.05978918731997</v>
+        <v>6.831748311635594</v>
       </c>
       <c r="D18">
-        <v>5.112520823972004</v>
+        <v>5.766985132373991</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.87565114609717</v>
+        <v>17.21637929126767</v>
       </c>
       <c r="G18">
-        <v>26.27686428580586</v>
+        <v>20.57219482630051</v>
       </c>
       <c r="H18">
-        <v>13.65736112213342</v>
+        <v>8.121667172395783</v>
       </c>
       <c r="I18">
-        <v>21.5308977796887</v>
+        <v>13.22458495759769</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.739776332691978</v>
+        <v>12.95490958153799</v>
       </c>
       <c r="L18">
-        <v>10.78999968993762</v>
+        <v>8.996948006064329</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.04737269458215</v>
+        <v>11.38074471960649</v>
       </c>
       <c r="O18">
-        <v>20.45853715026889</v>
+        <v>13.17406357010251</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.93871201037655</v>
+        <v>16.55108933418727</v>
       </c>
       <c r="C19">
-        <v>10.06121437474892</v>
+        <v>6.835313432920042</v>
       </c>
       <c r="D19">
-        <v>5.105620522440601</v>
+        <v>5.749730586110337</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.87585023035156</v>
+        <v>17.18634660564724</v>
       </c>
       <c r="G19">
-        <v>26.2780290804598</v>
+        <v>20.53620990364668</v>
       </c>
       <c r="H19">
-        <v>13.66019339739092</v>
+        <v>8.124143350453668</v>
       </c>
       <c r="I19">
-        <v>21.5364303881038</v>
+        <v>13.22901029944599</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.717254675926224</v>
+        <v>12.9089058861773</v>
       </c>
       <c r="L19">
-        <v>10.78639536883064</v>
+        <v>8.971129526242635</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.05141750223099</v>
+        <v>11.39460964367481</v>
       </c>
       <c r="O19">
-        <v>20.46256076673283</v>
+        <v>13.16951694442163</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.0544710220784</v>
+        <v>16.86618999804297</v>
       </c>
       <c r="C20">
-        <v>10.05484943277375</v>
+        <v>6.819363174924782</v>
       </c>
       <c r="D20">
-        <v>5.136551845143518</v>
+        <v>5.826948484077884</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.87533139261326</v>
+        <v>17.32219391864681</v>
       </c>
       <c r="G20">
-        <v>26.27331902973994</v>
+        <v>20.69940677371366</v>
       </c>
       <c r="H20">
-        <v>13.64757640302448</v>
+        <v>8.113365640226714</v>
       </c>
       <c r="I20">
-        <v>21.5117899509109</v>
+        <v>13.20990670562344</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.818053181910503</v>
+        <v>13.11465293991043</v>
       </c>
       <c r="L20">
-        <v>10.80274560259769</v>
+        <v>9.08708224562568</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.03331731359646</v>
+        <v>11.3323720787982</v>
       </c>
       <c r="O20">
-        <v>20.44472055699445</v>
+        <v>13.19080174581783</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.43688719350198</v>
+        <v>17.88616827144921</v>
       </c>
       <c r="C21">
-        <v>10.03431191016258</v>
+        <v>6.767403826581231</v>
       </c>
       <c r="D21">
-        <v>5.238316229887296</v>
+        <v>6.078794876654946</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.88017983352914</v>
+        <v>17.79058372972747</v>
       </c>
       <c r="G21">
-        <v>26.26680250089507</v>
+        <v>21.26963288511777</v>
       </c>
       <c r="H21">
-        <v>13.60743427419248</v>
+        <v>8.083725223974168</v>
       </c>
       <c r="I21">
-        <v>21.43350025043672</v>
+        <v>13.16036980506647</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.146917117534059</v>
+        <v>13.78354274182754</v>
       </c>
       <c r="L21">
-        <v>10.85992826193078</v>
+        <v>9.472302458784542</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.97428252222718</v>
+        <v>11.12594405810939</v>
       </c>
       <c r="O21">
-        <v>20.38944815789659</v>
+        <v>13.27707354821112</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.68155903744822</v>
+        <v>18.524144012487</v>
       </c>
       <c r="C22">
-        <v>10.02151893432681</v>
+        <v>6.734662307663042</v>
       </c>
       <c r="D22">
-        <v>5.303160379544719</v>
+        <v>6.237645058338156</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.88825096689378</v>
+        <v>18.10533260228724</v>
       </c>
       <c r="G22">
-        <v>26.26948380154713</v>
+        <v>21.65842505816128</v>
       </c>
       <c r="H22">
-        <v>13.58287478561365</v>
+        <v>8.069470075548505</v>
       </c>
       <c r="I22">
-        <v>21.38568971997874</v>
+        <v>13.13947346856561</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.354367884182386</v>
+        <v>14.20393258924249</v>
       </c>
       <c r="L22">
-        <v>10.89893391894922</v>
+        <v>9.720500921864392</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.9370214614255</v>
+        <v>10.99296793036026</v>
       </c>
       <c r="O22">
-        <v>20.35680868827064</v>
+        <v>13.34484516163883</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.55147885110255</v>
+        <v>18.18625065254667</v>
       </c>
       <c r="C23">
-        <v>10.02828934214834</v>
+        <v>6.752025636767376</v>
       </c>
       <c r="D23">
-        <v>5.26870754721405</v>
+        <v>6.153394396944932</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.88349546308703</v>
+        <v>17.93657401324198</v>
       </c>
       <c r="G23">
-        <v>26.26741772875116</v>
+        <v>21.44945928382569</v>
       </c>
       <c r="H23">
-        <v>13.59582936287186</v>
+        <v>8.076595857834604</v>
       </c>
       <c r="I23">
-        <v>21.41089978552199</v>
+        <v>13.14953950280342</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.244342337114391</v>
+        <v>13.98110077958069</v>
       </c>
       <c r="L23">
-        <v>10.87796917000366</v>
+        <v>9.588377374593348</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.95678775859814</v>
+        <v>11.06376663221624</v>
       </c>
       <c r="O23">
-        <v>20.37390987821426</v>
+        <v>13.30760777324491</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.04813754071553</v>
+        <v>16.84903237236574</v>
       </c>
       <c r="C24">
-        <v>10.05519576933455</v>
+        <v>6.820232951710505</v>
       </c>
       <c r="D24">
-        <v>5.134861229890784</v>
+        <v>5.822736378261636</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.87533506448239</v>
+        <v>17.31468811002732</v>
       </c>
       <c r="G24">
-        <v>26.27354267716675</v>
+        <v>20.69036187823436</v>
       </c>
       <c r="H24">
-        <v>13.64826080461569</v>
+        <v>8.113933327827677</v>
       </c>
       <c r="I24">
-        <v>21.51312616981474</v>
+        <v>13.21090208841391</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.812554224363442</v>
+        <v>13.1034382803232</v>
       </c>
       <c r="L24">
-        <v>10.80183916405954</v>
+        <v>9.080730236598395</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.03430458365987</v>
+        <v>11.33577962322875</v>
       </c>
       <c r="O24">
-        <v>20.44568270703185</v>
+        <v>13.18957838028202</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.48531664941857</v>
+        <v>15.28227508165127</v>
       </c>
       <c r="C25">
-        <v>10.0869370068084</v>
+        <v>6.899024980070188</v>
       </c>
       <c r="D25">
-        <v>4.983699769639493</v>
+        <v>5.44199792635798</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>22.88763945284946</v>
+        <v>16.68276263684732</v>
       </c>
       <c r="G25">
-        <v>26.30991695576829</v>
+        <v>19.94199950902325</v>
       </c>
       <c r="H25">
-        <v>13.71201554693133</v>
+        <v>8.174773628051273</v>
       </c>
       <c r="I25">
-        <v>21.6377825116794</v>
+        <v>13.32276986278721</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.315866667753971</v>
+        <v>12.08536186894029</v>
       </c>
       <c r="L25">
-        <v>10.72700048965314</v>
+        <v>8.51999247416258</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.12362326732458</v>
+        <v>11.63790475213438</v>
       </c>
       <c r="O25">
-        <v>20.53802750922556</v>
+        <v>13.10859397177014</v>
       </c>
     </row>
   </sheetData>
